--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag2-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Jag2-Notch4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.235147999999999</v>
+        <v>19.35876433333334</v>
       </c>
       <c r="H2">
-        <v>21.705444</v>
+        <v>58.07629300000001</v>
       </c>
       <c r="I2">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="J2">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N2">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O2">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P2">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q2">
-        <v>219.55660740858</v>
+        <v>612.0932509908885</v>
       </c>
       <c r="R2">
-        <v>1976.00946667722</v>
+        <v>5508.839258917996</v>
       </c>
       <c r="S2">
-        <v>0.7891903979284214</v>
+        <v>0.8327832998778253</v>
       </c>
       <c r="T2">
-        <v>0.7891903979284213</v>
+        <v>0.8327832998778253</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.235147999999999</v>
+        <v>19.35876433333334</v>
       </c>
       <c r="H3">
-        <v>21.705444</v>
+        <v>58.07629300000001</v>
       </c>
       <c r="I3">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="J3">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O3">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P3">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q3">
-        <v>23.32689613626799</v>
+        <v>62.41474050429323</v>
       </c>
       <c r="R3">
-        <v>209.9420652264119</v>
+        <v>561.732664538639</v>
       </c>
       <c r="S3">
-        <v>0.08384790902674914</v>
+        <v>0.08491835757711567</v>
       </c>
       <c r="T3">
-        <v>0.08384790902674913</v>
+        <v>0.08491835757711567</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.235147999999999</v>
+        <v>19.35876433333334</v>
       </c>
       <c r="H4">
-        <v>21.705444</v>
+        <v>58.07629300000001</v>
       </c>
       <c r="I4">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="J4">
-        <v>0.9254344869740032</v>
+        <v>0.9707667559429034</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N4">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O4">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P4">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q4">
-        <v>14.576872141756</v>
+        <v>39.00268971821812</v>
       </c>
       <c r="R4">
-        <v>131.191849275804</v>
+        <v>351.0242074639631</v>
       </c>
       <c r="S4">
-        <v>0.0523961800188327</v>
+        <v>0.05306509848796245</v>
       </c>
       <c r="T4">
-        <v>0.0523961800188327</v>
+        <v>0.05306509848796245</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>0.3016356666666667</v>
       </c>
       <c r="H5">
-        <v>0.904907</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I5">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="J5">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N5">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O5">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P5">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q5">
-        <v>9.153386170781669</v>
+        <v>9.537238671111668</v>
       </c>
       <c r="R5">
-        <v>82.38047553703501</v>
+        <v>85.83514804000501</v>
       </c>
       <c r="S5">
-        <v>0.03290160364460705</v>
+        <v>0.01297588738218094</v>
       </c>
       <c r="T5">
-        <v>0.03290160364460704</v>
+        <v>0.01297588738218094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>0.3016356666666667</v>
       </c>
       <c r="H6">
-        <v>0.904907</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I6">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="J6">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O6">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P6">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q6">
         <v>0.9725058654401111</v>
@@ -818,10 +818,10 @@
         <v>8.752552788960999</v>
       </c>
       <c r="S6">
-        <v>0.00349564652138277</v>
+        <v>0.001323142580743489</v>
       </c>
       <c r="T6">
-        <v>0.003495646521382769</v>
+        <v>0.001323142580743489</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>0.3016356666666667</v>
       </c>
       <c r="H7">
-        <v>0.904907</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I7">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="J7">
-        <v>0.03858166390441884</v>
+        <v>0.01512585579145048</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N7">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O7">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P7">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q7">
-        <v>0.6077145272485556</v>
+        <v>0.6077145272485557</v>
       </c>
       <c r="R7">
-        <v>5.469430745237</v>
+        <v>5.469430745237001</v>
       </c>
       <c r="S7">
-        <v>0.002184413738429025</v>
+        <v>0.00082682582852605</v>
       </c>
       <c r="T7">
-        <v>0.002184413738429025</v>
+        <v>0.0008268258285260501</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2813256666666667</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H8">
-        <v>0.8439770000000001</v>
+        <v>0.843977</v>
       </c>
       <c r="I8">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="J8">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.345835</v>
+        <v>31.618405</v>
       </c>
       <c r="N8">
-        <v>91.03750500000001</v>
+        <v>94.855215</v>
       </c>
       <c r="O8">
-        <v>0.8527782452855476</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="P8">
-        <v>0.8527782452855475</v>
+        <v>0.8578613706944929</v>
       </c>
       <c r="Q8">
-        <v>8.537062261931668</v>
+        <v>8.895068865561665</v>
       </c>
       <c r="R8">
-        <v>76.83356035738501</v>
+        <v>80.055619790055</v>
       </c>
       <c r="S8">
-        <v>0.0306862437125191</v>
+        <v>0.01210218343448655</v>
       </c>
       <c r="T8">
-        <v>0.0306862437125191</v>
+        <v>0.01210218343448655</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2813256666666667</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H9">
-        <v>0.8439770000000001</v>
+        <v>0.843977</v>
       </c>
       <c r="I9">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="J9">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>9.672322999999999</v>
       </c>
       <c r="O9">
-        <v>0.09060383010029813</v>
+        <v>0.08747555172986397</v>
       </c>
       <c r="P9">
-        <v>0.09060383010029811</v>
+        <v>0.08747555172986396</v>
       </c>
       <c r="Q9">
-        <v>0.9070242387301112</v>
+        <v>0.907024238730111</v>
       </c>
       <c r="R9">
-        <v>8.163218148571</v>
+        <v>8.163218148570998</v>
       </c>
       <c r="S9">
-        <v>0.003260274552166207</v>
+        <v>0.0012340515720048</v>
       </c>
       <c r="T9">
-        <v>0.003260274552166207</v>
+        <v>0.0012340515720048</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2813256666666667</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H10">
-        <v>0.8439770000000001</v>
+        <v>0.843977</v>
       </c>
       <c r="I10">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="J10">
-        <v>0.03598384912157791</v>
+        <v>0.01410738826564608</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.014730333333333</v>
+        <v>2.014730333333334</v>
       </c>
       <c r="N10">
-        <v>6.044191</v>
+        <v>6.044191000000001</v>
       </c>
       <c r="O10">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="P10">
-        <v>0.05661792461415433</v>
+        <v>0.05466307757564324</v>
       </c>
       <c r="Q10">
         <v>0.5667953541785555</v>
@@ -1066,10 +1066,10 @@
         <v>5.101158187607</v>
       </c>
       <c r="S10">
-        <v>0.002037330856892602</v>
+        <v>0.0007711532591547308</v>
       </c>
       <c r="T10">
-        <v>0.002037330856892602</v>
+        <v>0.0007711532591547309</v>
       </c>
     </row>
   </sheetData>
